--- a/data/trans_orig/P14B23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8016</v>
+        <v>7508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22516</v>
+        <v>22057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01966570098218521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01139517913489406</v>
+        <v>0.010673002726926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03200644368790205</v>
+        <v>0.03135473050003718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -764,19 +764,19 @@
         <v>63370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49137</v>
+        <v>47403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78834</v>
+        <v>77528</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0911956154059655</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07071277947657242</v>
+        <v>0.06821744132960118</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1134485316132405</v>
+        <v>0.1115692816411731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -785,19 +785,19 @@
         <v>77205</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62118</v>
+        <v>61441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95153</v>
+        <v>95389</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05521111504564442</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04442232677130606</v>
+        <v>0.04393784709601785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06804614036033613</v>
+        <v>0.06821528868164289</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>689635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>680953</v>
+        <v>681412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>695453</v>
+        <v>695961</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9803342990178148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.967993556312098</v>
+        <v>0.9686452694999624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9886048208651061</v>
+        <v>0.9893269972730737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>587</v>
@@ -835,19 +835,19 @@
         <v>631515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>616051</v>
+        <v>617357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>645748</v>
+        <v>647482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9088043845940345</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8865514683867595</v>
+        <v>0.888430718358827</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9292872205234276</v>
+        <v>0.9317825586703989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1247</v>
@@ -856,19 +856,19 @@
         <v>1321149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1303201</v>
+        <v>1302965</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1336236</v>
+        <v>1336913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9447888849543555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9319538596396638</v>
+        <v>0.9317847113183572</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9555776732286939</v>
+        <v>0.9560621529039822</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>28827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19424</v>
+        <v>18630</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43421</v>
+        <v>40991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02834959251408998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01910207961437975</v>
+        <v>0.01832172142219883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04270162582957489</v>
+        <v>0.04031137194852294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -981,19 +981,19 @@
         <v>84178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67778</v>
+        <v>67557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102815</v>
+        <v>104904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08195613128195327</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06598904733311371</v>
+        <v>0.06577412460273575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1001012483375564</v>
+        <v>0.1021352644883085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -1002,19 +1002,19 @@
         <v>113005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94197</v>
+        <v>91889</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136721</v>
+        <v>134904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05528738494901681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04608585341999229</v>
+        <v>0.04495662643232404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06689029482291732</v>
+        <v>0.0660014825807729</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>988022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>973428</v>
+        <v>975858</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>997425</v>
+        <v>998219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.97165040748591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.957298374170425</v>
+        <v>0.959688628051477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9808979203856202</v>
+        <v>0.9816782785778012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>860</v>
@@ -1052,19 +1052,19 @@
         <v>942929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924292</v>
+        <v>922203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>959329</v>
+        <v>959550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9180438687180468</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8998987516624435</v>
+        <v>0.8978647355116913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9340109526668863</v>
+        <v>0.9342258753972641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1769</v>
@@ -1073,19 +1073,19 @@
         <v>1930951</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1907235</v>
+        <v>1909052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1949759</v>
+        <v>1952067</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9447126150509831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9331097051770827</v>
+        <v>0.9339985174192272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9539141465800078</v>
+        <v>0.955043373567676</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>16552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9337</v>
+        <v>8618</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28801</v>
+        <v>28889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02184704164301122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01232458632491195</v>
+        <v>0.01137556971977966</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03801445167996217</v>
+        <v>0.03813126243482368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -1198,19 +1198,19 @@
         <v>56021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42888</v>
+        <v>42257</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73457</v>
+        <v>73762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07218461685419549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05526270228743953</v>
+        <v>0.05444943559330646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09465088002753244</v>
+        <v>0.09504391742834341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -1219,19 +1219,19 @@
         <v>72573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56119</v>
+        <v>57057</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92856</v>
+        <v>90791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04731876018477028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03659059064123175</v>
+        <v>0.03720175959270682</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06054348765289842</v>
+        <v>0.05919742908671433</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>741071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>728822</v>
+        <v>728734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>748286</v>
+        <v>749005</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9781529583569888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9619855483200378</v>
+        <v>0.9618687375651762</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.987675413675088</v>
+        <v>0.9886244302802203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1269,19 +1269,19 @@
         <v>720062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702626</v>
+        <v>702321</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733195</v>
+        <v>733826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9278153831458045</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9053491199724679</v>
+        <v>0.9049560825716564</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9447372977125608</v>
+        <v>0.9455505644066935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1328</v>
@@ -1290,19 +1290,19 @@
         <v>1461133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1440850</v>
+        <v>1442915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1477587</v>
+        <v>1476649</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9526812398152297</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9394565123471015</v>
+        <v>0.9408025709132857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9634094093587683</v>
+        <v>0.9627982404072931</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>25945</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16878</v>
+        <v>16656</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36637</v>
+        <v>38360</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02740554895013531</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01782890347547594</v>
+        <v>0.01759345898948209</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03869980359058488</v>
+        <v>0.04052066353237189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1415,19 +1415,19 @@
         <v>81425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64630</v>
+        <v>65471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100209</v>
+        <v>100900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07762948260597963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06161748798941245</v>
+        <v>0.06241985895444808</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09553850037585221</v>
+        <v>0.09619733228878302</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -1436,19 +1436,19 @@
         <v>107369</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88141</v>
+        <v>89192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129912</v>
+        <v>130741</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05380356528626606</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04416813725667446</v>
+        <v>0.04469495561413353</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06509999749116464</v>
+        <v>0.06551544849129298</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>920744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>910052</v>
+        <v>908329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>929811</v>
+        <v>930033</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725944510498646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9613001964094151</v>
+        <v>0.9594793364676283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821710965245241</v>
+        <v>0.9824065410105179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>923</v>
@@ -1486,19 +1486,19 @@
         <v>967462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>948678</v>
+        <v>947987</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>984257</v>
+        <v>983416</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9223705173940204</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9044614996241481</v>
+        <v>0.903802667711217</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9383825120105876</v>
+        <v>0.937580141045552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1807</v>
@@ -1507,19 +1507,19 @@
         <v>1888207</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1865664</v>
+        <v>1864835</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1907435</v>
+        <v>1906384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9461964347137339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9349000025088352</v>
+        <v>0.9344845515087068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9558318627433255</v>
+        <v>0.9553050443858664</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>85158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66619</v>
+        <v>66696</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104087</v>
+        <v>106661</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02486628227213002</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01945285199492841</v>
+        <v>0.01947544663696105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03039364984553857</v>
+        <v>0.0311453661706941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>268</v>
@@ -1632,19 +1632,19 @@
         <v>284994</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>254658</v>
+        <v>249745</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>318538</v>
+        <v>318626</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08034875810665652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07179618805041722</v>
+        <v>0.07041097629132298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0898058673947862</v>
+        <v>0.08983063821945649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>345</v>
@@ -1653,19 +1653,19 @@
         <v>370152</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>331951</v>
+        <v>332493</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>409461</v>
+        <v>409132</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05309430533066321</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04761473759596537</v>
+        <v>0.04769256339643078</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05873279286566738</v>
+        <v>0.0586856323841033</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3339472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3320543</v>
+        <v>3317969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3358011</v>
+        <v>3357934</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9751337177278699</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9696063501544615</v>
+        <v>0.9688546338293061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9805471480050719</v>
+        <v>0.9805245533630391</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3021</v>
@@ -1703,19 +1703,19 @@
         <v>3261969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3228425</v>
+        <v>3228337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3292305</v>
+        <v>3297218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9196512418933435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9101941326052131</v>
+        <v>0.9101693617805435</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9282038119495828</v>
+        <v>0.929589023708677</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6151</v>
@@ -1724,19 +1724,19 @@
         <v>6601440</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6562131</v>
+        <v>6562460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6639641</v>
+        <v>6639099</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9469056946693368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9412672071343327</v>
+        <v>0.9413143676158968</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9523852624040348</v>
+        <v>0.9523074366035693</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>12300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6811</v>
+        <v>6588</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21807</v>
+        <v>20986</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01822737639022862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01009388842732271</v>
+        <v>0.009763303340768841</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03231644075667674</v>
+        <v>0.03109900711396294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -2089,19 +2089,19 @@
         <v>53918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40607</v>
+        <v>40892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69035</v>
+        <v>69880</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0801354528483422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06035215338274301</v>
+        <v>0.06077548050585405</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1026022018107248</v>
+        <v>0.1038579239894686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -2110,19 +2110,19 @@
         <v>66218</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51223</v>
+        <v>52901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85342</v>
+        <v>86094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04913637219370719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03800952631427375</v>
+        <v>0.03925484242463466</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06332675818584946</v>
+        <v>0.06388540600089145</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>662500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>652993</v>
+        <v>653814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>667989</v>
+        <v>668212</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9817726236097714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9676835592433232</v>
+        <v>0.9689009928860377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9899061115726772</v>
+        <v>0.9902366966592315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>615</v>
@@ -2160,19 +2160,19 @@
         <v>618921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>603804</v>
+        <v>602959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>632232</v>
+        <v>631947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9198645471516578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8973977981892752</v>
+        <v>0.8961420760105315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9396478466172571</v>
+        <v>0.939224519494146</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1255</v>
@@ -2181,19 +2181,19 @@
         <v>1281421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1262297</v>
+        <v>1261545</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1296416</v>
+        <v>1294738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9508636278062929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9366732418141505</v>
+        <v>0.9361145939991078</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9619904736857262</v>
+        <v>0.960745157575365</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>16302</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9490</v>
+        <v>9247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25893</v>
+        <v>25100</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01594471280837351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009281368945031095</v>
+        <v>0.009044186992127036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02532506675620956</v>
+        <v>0.02454964364954737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -2306,19 +2306,19 @@
         <v>64166</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48804</v>
+        <v>50218</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81756</v>
+        <v>83475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06152584259657968</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04679585952484774</v>
+        <v>0.04815134979945637</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07839180095360647</v>
+        <v>0.08004011447915006</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -2327,19 +2327,19 @@
         <v>80468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64469</v>
+        <v>65129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100221</v>
+        <v>100888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0389612916660208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03121443887630194</v>
+        <v>0.03153413000950959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04852521103696053</v>
+        <v>0.04884815496802608</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1006129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>996538</v>
+        <v>997331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012941</v>
+        <v>1013184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9840552871916265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9746749332437906</v>
+        <v>0.9754503563504527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.990718631054969</v>
+        <v>0.9909558130078729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>919</v>
@@ -2377,19 +2377,19 @@
         <v>978747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961157</v>
+        <v>959438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>994109</v>
+        <v>992695</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9384741574034203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9216081990463936</v>
+        <v>0.9199598855208496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9532041404751523</v>
+        <v>0.9518486502005433</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1854</v>
@@ -2398,19 +2398,19 @@
         <v>1984876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965123</v>
+        <v>1964456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2000875</v>
+        <v>2000215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9610387083339792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9514747889630395</v>
+        <v>0.9511518450319739</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9687855611236981</v>
+        <v>0.9684658699904904</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>18297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11320</v>
+        <v>11023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27789</v>
+        <v>29076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02408898521750769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01490317578562838</v>
+        <v>0.01451192299106453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03658624540761193</v>
+        <v>0.03828084923832938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -2523,19 +2523,19 @@
         <v>53133</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40141</v>
+        <v>39372</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70370</v>
+        <v>67960</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0676842369003767</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05113406018770657</v>
+        <v>0.05015530255698392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0896418690403183</v>
+        <v>0.08657191277415056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -2544,19 +2544,19 @@
         <v>71430</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54324</v>
+        <v>54935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90914</v>
+        <v>90878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04624589564561526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03517120433686953</v>
+        <v>0.03556700835574401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05886053115175762</v>
+        <v>0.05883721037113788</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>741255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>731763</v>
+        <v>730476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>748232</v>
+        <v>748529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9759110147824923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9634137545923883</v>
+        <v>0.9617191507616706</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850968242143717</v>
+        <v>0.9854880770089356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>688</v>
@@ -2594,19 +2594,19 @@
         <v>731878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714641</v>
+        <v>717051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>744870</v>
+        <v>745639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9323157630996233</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9103581309596817</v>
+        <v>0.9134280872258494</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9488659398122934</v>
+        <v>0.949844697443016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1367</v>
@@ -2615,19 +2615,19 @@
         <v>1473133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1453649</v>
+        <v>1453685</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1490239</v>
+        <v>1489628</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9537541043543848</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9411394688482425</v>
+        <v>0.9411627896288617</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9648287956631305</v>
+        <v>0.9644329916442553</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>19992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12368</v>
+        <v>13132</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30319</v>
+        <v>30547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02132327435871044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01319136654970439</v>
+        <v>0.01400619943640856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0323383437805937</v>
+        <v>0.03258129839984209</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -2740,19 +2740,19 @@
         <v>66699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52117</v>
+        <v>50770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85868</v>
+        <v>83986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06390183012964576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04993109448720656</v>
+        <v>0.04864024509138433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08226655864144446</v>
+        <v>0.08046382147624463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -2761,19 +2761,19 @@
         <v>86691</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69547</v>
+        <v>71290</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107489</v>
+        <v>105615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04375378505141655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0351010448085247</v>
+        <v>0.03598063576805617</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05425066311026416</v>
+        <v>0.05330480318190307</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>917575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>907248</v>
+        <v>907020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>925199</v>
+        <v>924435</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9786767256412896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9676616562194064</v>
+        <v>0.967418701600158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9868086334502957</v>
+        <v>0.9859938005635914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>901</v>
@@ -2811,19 +2811,19 @@
         <v>977080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>957911</v>
+        <v>959793</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>991662</v>
+        <v>993009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9360981698703542</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9177334413585554</v>
+        <v>0.9195361785237552</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9500689055127934</v>
+        <v>0.9513597549086157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1812</v>
@@ -2832,19 +2832,19 @@
         <v>1894655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1873857</v>
+        <v>1875731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1911799</v>
+        <v>1910056</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9562462149485834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9457493368897359</v>
+        <v>0.946695196818097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9648989551914753</v>
+        <v>0.9640193642319438</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>66891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52605</v>
+        <v>50427</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85342</v>
+        <v>83049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01970658274563305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01549782183132276</v>
+        <v>0.01485617203978425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02514246988506556</v>
+        <v>0.02446672067256133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -2957,19 +2957,19 @@
         <v>237917</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207684</v>
+        <v>209457</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>274709</v>
+        <v>272707</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06712196324374967</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05859270296704545</v>
+        <v>0.05909291470979196</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07750208701818941</v>
+        <v>0.07693728137728899</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -2978,19 +2978,19 @@
         <v>304808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>272390</v>
+        <v>268225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>340167</v>
+        <v>340343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04392742366477541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03925549998180625</v>
+        <v>0.03865526240186772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04902330229248265</v>
+        <v>0.04904863553321134</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3327459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3309008</v>
+        <v>3311301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341745</v>
+        <v>3343923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9802934172543669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9748575301149345</v>
+        <v>0.9755332793274387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845021781686774</v>
+        <v>0.9851438279602158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3123</v>
@@ -3028,19 +3028,19 @@
         <v>3306625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3269833</v>
+        <v>3271835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3336858</v>
+        <v>3335085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9328780367562504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9224979129818106</v>
+        <v>0.9230627186227111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9414072970329546</v>
+        <v>0.9409070852902081</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6288</v>
@@ -3049,19 +3049,19 @@
         <v>6634084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6598725</v>
+        <v>6598549</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6666502</v>
+        <v>6670667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9560725763352246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9509766977075175</v>
+        <v>0.9509513644667886</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9607445000181939</v>
+        <v>0.9613447375981322</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>38611</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27962</v>
+        <v>28566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53033</v>
+        <v>54279</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05590114220709312</v>
+        <v>0.05590114220709311</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04048300742153947</v>
+        <v>0.04135710049943615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07678029261757648</v>
+        <v>0.07858418052873592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -3414,19 +3414,19 @@
         <v>49974</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40392</v>
+        <v>40340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62870</v>
+        <v>61431</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06806817149887096</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05501582335348232</v>
+        <v>0.0549461897594821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08563357896782083</v>
+        <v>0.08367358387199038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>129</v>
@@ -3435,19 +3435,19 @@
         <v>88586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73035</v>
+        <v>73600</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106707</v>
+        <v>105568</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06217025152867884</v>
+        <v>0.06217025152867883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05125650257132399</v>
+        <v>0.05165319315498545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07488820198696088</v>
+        <v>0.074088321037639</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>652099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>637677</v>
+        <v>636431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>662748</v>
+        <v>662144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9440988577929069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9232197073824234</v>
+        <v>0.9214158194712641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9595169925784605</v>
+        <v>0.9586428995005639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1151</v>
@@ -3485,19 +3485,19 @@
         <v>684206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>671310</v>
+        <v>672749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>693788</v>
+        <v>693840</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.931931828501129</v>
+        <v>0.9319318285011289</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9143664210321796</v>
+        <v>0.9163264161280097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9449841766465177</v>
+        <v>0.9450538102405179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1842</v>
@@ -3506,19 +3506,19 @@
         <v>1336303</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1318182</v>
+        <v>1319321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1351854</v>
+        <v>1351289</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9378297484713212</v>
+        <v>0.9378297484713213</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9251117980130389</v>
+        <v>0.925911678962361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.948743497428676</v>
+        <v>0.9483468068450147</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>25924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17238</v>
+        <v>17209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38361</v>
+        <v>37016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02471531444568248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01643437390217327</v>
+        <v>0.0164060229491721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03657200393106804</v>
+        <v>0.03528944030542842</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -3631,19 +3631,19 @@
         <v>76288</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62014</v>
+        <v>64247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90705</v>
+        <v>91355</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07119908212994761</v>
+        <v>0.07119908212994762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0578768620079002</v>
+        <v>0.05996140127771141</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08465467916812748</v>
+        <v>0.08526150503153396</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -3652,19 +3652,19 @@
         <v>102212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85844</v>
+        <v>86302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120551</v>
+        <v>120994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04820445020035488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04048487507504555</v>
+        <v>0.0407011835001272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05685308977534</v>
+        <v>0.05706207556403819</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1022993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1010556</v>
+        <v>1011901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1031679</v>
+        <v>1031708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9752846855543176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634279960689316</v>
+        <v>0.9647105596945714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9835656260978265</v>
+        <v>0.983593977050828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1401</v>
@@ -3702,19 +3702,19 @@
         <v>995186</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980769</v>
+        <v>980119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1009460</v>
+        <v>1007227</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9288009178700524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9153453208318725</v>
+        <v>0.9147384949684662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9421231379920999</v>
+        <v>0.9400385987222889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2337</v>
@@ -3723,19 +3723,19 @@
         <v>2018179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1999840</v>
+        <v>1999397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2034547</v>
+        <v>2034089</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9517955497996451</v>
+        <v>0.951795549799645</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9431469102246601</v>
+        <v>0.9429379244359617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9595151249249546</v>
+        <v>0.9592988164998724</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>27129</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17064</v>
+        <v>17733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41096</v>
+        <v>43082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03378133553793374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02124834938282859</v>
+        <v>0.02208111901023419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05117333221198721</v>
+        <v>0.05364624733810942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -3848,19 +3848,19 @@
         <v>78086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63496</v>
+        <v>63451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94526</v>
+        <v>94234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09613450282041698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07817172301370523</v>
+        <v>0.07811728614675947</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1163743691570878</v>
+        <v>0.1160150041924642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>130</v>
@@ -3869,19 +3869,19 @@
         <v>105215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86610</v>
+        <v>86022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124618</v>
+        <v>125787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06513520692074447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05361717009056319</v>
+        <v>0.0532537571380453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07714686306219314</v>
+        <v>0.07787062320484284</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>775944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>761977</v>
+        <v>759991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>786009</v>
+        <v>785340</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9662186644620663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9488266677880128</v>
+        <v>0.9463537526618903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9787516506171713</v>
+        <v>0.977918880989765</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>940</v>
@@ -3919,19 +3919,19 @@
         <v>734173</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717733</v>
+        <v>718025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>748763</v>
+        <v>748808</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9038654971795831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8836256308429121</v>
+        <v>0.883984995807536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9218282769862947</v>
+        <v>0.9218827138532406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1593</v>
@@ -3940,19 +3940,19 @@
         <v>1510117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1490714</v>
+        <v>1489545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1528722</v>
+        <v>1529310</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9348647930792554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9228531369378068</v>
+        <v>0.9221293767951571</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9463828299094368</v>
+        <v>0.9467462428619545</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>43553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32586</v>
+        <v>31623</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58816</v>
+        <v>57901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04399036539826447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03291273432002303</v>
+        <v>0.03194049023549191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05940623193962181</v>
+        <v>0.05848233193016646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -4065,19 +4065,19 @@
         <v>94982</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80084</v>
+        <v>78828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110870</v>
+        <v>111809</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08487790012325902</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07156516626897499</v>
+        <v>0.0704426880582584</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09907631229060199</v>
+        <v>0.09991480784972827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -4086,19 +4086,19 @@
         <v>138535</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118849</v>
+        <v>117497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159855</v>
+        <v>161061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06568434157432042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05635068888851291</v>
+        <v>0.055709488566192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07579288713444057</v>
+        <v>0.07636463107835942</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>946509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>931246</v>
+        <v>932161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>957476</v>
+        <v>958439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9560096346017356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9405937680603783</v>
+        <v>0.9415176680698335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.967087265679977</v>
+        <v>0.9680595097645081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1423</v>
@@ -4136,19 +4136,19 @@
         <v>1024059</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1008171</v>
+        <v>1007232</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1038957</v>
+        <v>1040213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9151220998767411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9009236877093978</v>
+        <v>0.9000851921502721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9284348337310248</v>
+        <v>0.9295573119417416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2382</v>
@@ -4157,19 +4157,19 @@
         <v>1970569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1949249</v>
+        <v>1948043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1990255</v>
+        <v>1991607</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9343156584256797</v>
+        <v>0.9343156584256795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9242071128655598</v>
+        <v>0.9236353689216404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.943649311111487</v>
+        <v>0.9442905114338079</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>135218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113408</v>
+        <v>111675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160831</v>
+        <v>162312</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03827539222787757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0321017034585543</v>
+        <v>0.03161114073685194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04552545949502023</v>
+        <v>0.04594478447260101</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>452</v>
@@ -4282,19 +4282,19 @@
         <v>299330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>271796</v>
+        <v>273976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>328182</v>
+        <v>331084</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0801000539234278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07273186518229634</v>
+        <v>0.07331544755997914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08782080933619643</v>
+        <v>0.08859724223886213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>589</v>
@@ -4303,19 +4303,19 @@
         <v>434548</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>398896</v>
+        <v>393024</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>475673</v>
+        <v>470504</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05977510998432212</v>
+        <v>0.05977510998432211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05487092139409511</v>
+        <v>0.05406320808633589</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06543208960991158</v>
+        <v>0.06472113825583961</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3397544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3371931</v>
+        <v>3370450</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3419354</v>
+        <v>3421087</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9617246077721227</v>
+        <v>0.9617246077721225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9544745405049796</v>
+        <v>0.954055215527399</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9678982965414458</v>
+        <v>0.9683888592631481</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4915</v>
@@ -4353,19 +4353,19 @@
         <v>3437624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3408772</v>
+        <v>3405870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3465158</v>
+        <v>3462978</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9198999460765722</v>
+        <v>0.9198999460765721</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9121791906638034</v>
+        <v>0.9114027577611378</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9272681348177035</v>
+        <v>0.9266845524400209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8154</v>
@@ -4374,19 +4374,19 @@
         <v>6835168</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6794043</v>
+        <v>6799212</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6870820</v>
+        <v>6876692</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9402248900156779</v>
+        <v>0.9402248900156777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9345679103900885</v>
+        <v>0.9352788617441604</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9451290786059053</v>
+        <v>0.9459367919136642</v>
       </c>
     </row>
     <row r="18">
